--- a/Pressuremark2.0/11R22.5-16PR-R152轮胎接地压力分布报告.xlsx
+++ b/Pressuremark2.0/11R22.5-16PR-R152轮胎接地压力分布报告.xlsx
@@ -371,7 +371,7 @@
     <t>y=-0.0000705441x^2+3.53x  Qm=44093.11</t>
   </si>
   <si>
-    <t>2019-11-28</t>
+    <t>2019-11-29</t>
   </si>
   <si>
     <t>0-1500.0</t>
